--- a/data/income_statement/2digits/size/88_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/88_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>88-Social work activities without accommodation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>88-Social work activities without accommodation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,98 +841,113 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>466526.318</v>
+        <v>464531.82143</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>527743.01987</v>
+        <v>525631.9577</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>668263.00746</v>
+        <v>669240.72503</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>822203.53773</v>
+        <v>834702.86904</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>895858.6742799999</v>
+        <v>903838.73295</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>972749.3085699999</v>
+        <v>985192.18579</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1077672.7874</v>
+        <v>1100079.7469</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1257990.76686</v>
+        <v>1281846.86159</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1421330.68025</v>
+        <v>1446689.57789</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1580878.08663</v>
+        <v>1592561.19011</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1910465.34622</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1951200.18464</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1896826.829</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>443876.0702200001</v>
+        <v>441962.2446499999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>501947.21877</v>
+        <v>499874.97679</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>633206.3107499999</v>
+        <v>634225.99026</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>778534.62363</v>
+        <v>790864.82808</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>851752.16254</v>
+        <v>859723.81775</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>933488.4435800001</v>
+        <v>944894.26014</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1030343.16981</v>
+        <v>1052528.03351</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1208155.48055</v>
+        <v>1229929.95565</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1360540.15446</v>
+        <v>1383428.97161</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1511734.41091</v>
+        <v>1519909.49048</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1796832.80641</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1834485.7077</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1798287.17</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>759.59055</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1138.81159</v>
+        <v>1029.99224</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>3441.0435</v>
@@ -1043,13 +959,13 @@
         <v>6814.198179999999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>5044.309340000001</v>
+        <v>5047.636260000001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>9900.635039999999</v>
+        <v>10102.10754</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>5376.13695</v>
+        <v>5270.47457</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>5933.09234</v>
@@ -1058,79 +974,89 @@
         <v>3273.48029</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>25054.14462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>25048.47812</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>7934.553</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>21890.65723</v>
+        <v>21809.98623</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>24656.98951</v>
+        <v>24726.98867</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>31615.65321</v>
+        <v>31573.69127</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>39452.88400999999</v>
+        <v>39622.01087000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>37292.31356</v>
+        <v>37300.71702</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>34216.55565</v>
+        <v>35250.28939</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>37428.98255</v>
+        <v>37449.60584999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>44459.14936</v>
+        <v>46646.43137000001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>54857.43345</v>
+        <v>57327.51394</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>65870.19542999999</v>
+        <v>69378.21934000001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>88578.39519</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>91665.99881999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>90605.106</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1614.75546</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1748.57656</v>
+        <v>2018.0214</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1452.76706</v>
+        <v>1495.06428</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1269.01893</v>
+        <v>1801.26937</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2886.06844</v>
+        <v>2982.07047</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1709.81171</v>
+        <v>1726.81676</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>412.99379</v>
+        <v>797.97183</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1605.03429</v>
+        <v>1717.48519</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>351.08801</v>
+        <v>564.66337</v>
       </c>
       <c r="L9" s="47" t="n">
         <v>674.7171699999999</v>
@@ -1138,38 +1064,43 @@
       <c r="M9" s="47" t="n">
         <v>563.39989</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>3706.306</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>419.65608</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>326.46428</v>
+        <v>556.2526800000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>197.42003</v>
+        <v>197.7904</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>162.61511</v>
+        <v>307.03599</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>387.07557</v>
+        <v>477.73018</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1013.77311</v>
+        <v>1030.77816</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>275.08646</v>
+        <v>650.90233</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>537.07475</v>
+        <v>602.2776600000001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>168.24967</v>
+        <v>381.82503</v>
       </c>
       <c r="L10" s="48" t="n">
         <v>496.75539</v>
@@ -1177,35 +1108,40 @@
       <c r="M10" s="48" t="n">
         <v>161.30543</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>1470.835</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>415.62906</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1095.90155</v>
+        <v>1135.55799</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1250.65953</v>
+        <v>1292.58638</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1064.34411</v>
+        <v>1452.17367</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>928.73464</v>
+        <v>979.50426</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>617.5307200000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>113.06134</v>
+        <v>122.22351</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>152.0443</v>
+        <v>199.29229</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>139.2256</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>233.09771</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>176.98</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>779.4703199999999</v>
@@ -1235,7 +1176,7 @@
         <v>42.05971</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1570.25823</v>
+        <v>1524.83603</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>78.50788</v>
@@ -1255,323 +1196,368 @@
       <c r="M12" s="48" t="n">
         <v>168.99675</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>2058.491</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>464911.56254</v>
+        <v>462917.0659700001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>525994.44331</v>
+        <v>523613.9362999999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>666810.2404000001</v>
+        <v>667745.66075</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>820934.5188</v>
+        <v>832901.59967</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>892972.6058400001</v>
+        <v>900856.6624800001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>971039.4968600001</v>
+        <v>983465.3690299999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1077259.79361</v>
+        <v>1099281.77507</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1256385.73257</v>
+        <v>1280129.3764</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1420979.59224</v>
+        <v>1446124.91452</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1580203.36946</v>
+        <v>1591886.47294</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1909901.94633</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1950636.78475</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1893120.523</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>263141.57282</v>
+        <v>262622.66927</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>317242.8930800001</v>
+        <v>318791.46266</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>399339.44466</v>
+        <v>400465.3690299999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>514594.48406</v>
+        <v>523884.61742</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>568762.9933999999</v>
+        <v>576474.01516</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>629373.3418599999</v>
+        <v>639695.7980900001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>726774.69883</v>
+        <v>743527.29024</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>901857.6067799999</v>
+        <v>915065.20487</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>993628.65822</v>
+        <v>1021460.05843</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1163165.65239</v>
+        <v>1172631.71946</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1423591.35117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1451793.29845</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1310767.58</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1327.00083</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1069.82711</v>
+        <v>1033.00782</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>2045.76891</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>5530.99327</v>
+        <v>5569.40092</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>8107.19443</v>
+        <v>7708.029560000001</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>9435.94752</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>5588.80908</v>
+        <v>6121.756429999999</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>7810.740070000001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>13110.79764</v>
+        <v>12118.77153</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>17404.31891</v>
+        <v>17422.24578</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>22637.73088</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>22672.00531</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>11559.721</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>8331.684670000001</v>
+        <v>8097.50725</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>10856.19993</v>
+        <v>10181.82994</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>7705.76748</v>
+        <v>6777.485210000001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>10344.57313</v>
+        <v>11384.96266</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>16050.33986</v>
+        <v>16324.53522</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>17949.79025</v>
+        <v>19689.20793</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>16336.95692</v>
+        <v>20901.73265</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>25026.13619</v>
+        <v>24749.46725</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>42612.70195</v>
+        <v>48072.96218</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>43286.9318</v>
+        <v>46793.44168</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>90740.27363000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>90746.77363000001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>29066.981</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>253363.86424</v>
+        <v>253098.94009</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>305061.68151</v>
+        <v>307321.44037</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>388409.32141</v>
+        <v>389562.17306</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>498236.11001</v>
+        <v>505490.45802</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>544091.50128</v>
+        <v>551414.9584700001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>599654.8047999999</v>
+        <v>607839.8597499999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>702665.05451</v>
+        <v>713510.3325400001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>864534.8878200001</v>
+        <v>875345.60884</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>935023.9950300001</v>
+        <v>957456.68137</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1097637.67767</v>
+        <v>1103905.37477</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1303086.74824</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1331609.29956</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1264341.416</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>119.02308</v>
+        <v>99.22110000000001</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>255.18453</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1178.58686</v>
+        <v>2079.94185</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>482.80765</v>
+        <v>1439.79582</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>513.9578300000001</v>
+        <v>1026.49191</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>2332.79929</v>
+        <v>2730.782889999999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>2183.87832</v>
+        <v>2993.46862</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>4485.8427</v>
+        <v>7159.38871</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>2881.1636</v>
+        <v>3811.64335</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>4836.72401</v>
+        <v>4510.657230000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>7126.59842</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>6765.219950000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>5799.462</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>201769.98972</v>
+        <v>200294.3967</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>208751.55023</v>
+        <v>204822.47364</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>267470.79574</v>
+        <v>267280.29172</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>306340.03474</v>
+        <v>309016.98225</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>324209.61244</v>
+        <v>324382.64732</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>341666.155</v>
+        <v>343769.57094</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>350485.09478</v>
+        <v>355754.48483</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>354528.12579</v>
+        <v>365064.1715300001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>427350.93402</v>
+        <v>424664.85609</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>417037.71707</v>
+        <v>419254.75348</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>486310.59516</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>498843.4862999999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>582352.943</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>153843.41261</v>
+        <v>153140.52998</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>170715.65902</v>
+        <v>173559.30771</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>215509.74133</v>
+        <v>215684.42461</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>247543.97015</v>
+        <v>248925.13186</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>278264.00324</v>
+        <v>278895.1014700001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>305459.22307</v>
+        <v>307209.04002</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>304000.07025</v>
+        <v>308730.9361</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>331913.45918</v>
+        <v>335930.18657</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>382477.78954</v>
+        <v>383952.07654</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>408970.51203</v>
+        <v>411249.17868</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>519368.94796</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>533206.3368500001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>510181.662</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>326.79882</v>
@@ -1592,7 +1578,7 @@
         <v>1412.88089</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>695.5459599999999</v>
+        <v>767.68925</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>1392.10732</v>
@@ -1606,188 +1592,213 @@
       <c r="M21" s="48" t="n">
         <v>370.76692</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>297.052</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>8398.5028</v>
+        <v>8379.119929999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>10886.38853</v>
+        <v>11264.82571</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>10240.63151</v>
+        <v>10132.88932</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>10069.38318</v>
+        <v>10097.78907</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>13617.43479</v>
+        <v>13748.90862</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>12479.36773</v>
+        <v>12705.85316</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>15725.94994</v>
+        <v>16316.4709</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>19738.43</v>
+        <v>19870.21396</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>19762.28173</v>
+        <v>19873.76311</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>19455.81069</v>
+        <v>19475.6717</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>40101.36629</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>40365.51179</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>24772.638</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>145118.11099</v>
+        <v>144434.61123</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>158562.02917</v>
+        <v>161027.24068</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>204741.39554</v>
+        <v>205023.82101</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>236708.04297</v>
+        <v>238060.79879</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>263875.69489</v>
+        <v>264375.31929</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>291566.97445</v>
+        <v>293090.30597</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>287578.57435</v>
+        <v>291646.77595</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>310782.92186</v>
+        <v>314667.86529</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>361576.63344</v>
+        <v>362939.43906</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>388824.09931</v>
+        <v>391082.9049500001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>478896.81475</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>492470.05814</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>485111.972</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>47926.57711</v>
+        <v>47153.86672</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>38035.89121</v>
+        <v>31263.16593</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>51961.05441</v>
+        <v>51595.86711</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>58796.06459</v>
+        <v>60091.85039</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>45945.60920000001</v>
+        <v>45487.54584999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>36206.93193</v>
+        <v>36560.53092</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>46485.02453</v>
+        <v>47023.54873</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>22614.66661</v>
+        <v>29133.98496</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>44873.14448</v>
+        <v>40712.77955000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>8067.20504</v>
+        <v>8005.574799999999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-33058.3528</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-34362.85055</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>72171.281</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1849.75202</v>
+        <v>10748.44138</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1393.16683</v>
+        <v>1664.74692</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2247.58525</v>
+        <v>2405.29268</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>3054.98774</v>
+        <v>3361.02614</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>8393.69009</v>
+        <v>9790.0687</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>5111.141970000001</v>
+        <v>4479.65355</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>7552.20408</v>
+        <v>7437.92312</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>9461.11778</v>
+        <v>9308.8866</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>12509.91257</v>
+        <v>12486.94266</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>16670.95555</v>
+        <v>15632.7626</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>20887.17357</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>20044.06699</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>19006.698</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>0</v>
+        <v>8758.741320000001</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0</v>
+        <v>73.83839999999999</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>6.11824</v>
+        <v>250.81152</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>0</v>
+        <v>77.60262</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>8.83958</v>
+        <v>170.35256</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>5.34732</v>
+        <v>60.34732</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>1.48002</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>418.54175</v>
+        <v>503.96327</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>476.91958</v>
+        <v>488.70036</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>314.85851</v>
+        <v>348.00205</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>845.67372</v>
+        <v>842.04901</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>983.17817</v>
+        <v>986.3084699999999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1216.72915</v>
+        <v>974.33712</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1630.8664</v>
+        <v>1438.56988</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2016.21656</v>
+        <v>1719.54749</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>2811.88446</v>
+        <v>2557.93516</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>3147.23503</v>
+        <v>2578.34993</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>4107.26786</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>3472.17351</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2799.712</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,26 +1944,31 @@
       <c r="M29" s="48" t="n">
         <v>80.85899999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>109.871</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>402.31303</v>
+        <v>401.35331</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>80.75396000000001</v>
+        <v>78.98896000000001</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>7.91713</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>39.42404</v>
+        <v>39.24636</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>27.17082</v>
@@ -1957,89 +1988,104 @@
       <c r="M30" s="48" t="n">
         <v>157.53899</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>79.008</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>19.88298</v>
+        <v>56.82862</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>10.16162</v>
+        <v>10.35809</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>25.15659</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>38.66614</v>
+        <v>44.90595</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>28.18589</v>
+        <v>28.06054</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>95.74618</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>97.33933999999999</v>
+        <v>96.29060000000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>58.62341000000001</v>
+        <v>57.77296</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>127.83072</v>
+        <v>127.0554</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>332.72424</v>
+        <v>331.46169</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>183.08356</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>179.27447</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>239.27</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>224.31549</v>
+        <v>224.89747</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>65.75471</v>
+        <v>225.80389</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>431.9559</v>
+        <v>579.40777</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>186.67224</v>
+        <v>435.7311100000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>567.74211</v>
+        <v>2217.58854</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>838.34797</v>
+        <v>940.33287</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1481.2422</v>
+        <v>1881.34539</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1272.8557</v>
+        <v>1667.22384</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1980.94262</v>
+        <v>2490.50619</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>3752.51278</v>
+        <v>3727.61068</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2930.25146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2993.40066</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>3188.57</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1.16524</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>14.04795</v>
@@ -2093,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>95.79221000000001</v>
+        <v>91.301</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>711.03486</v>
+        <v>212.62686</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>64.02934999999999</v>
@@ -2113,116 +2164,131 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>770.6508200000001</v>
+        <v>788.6094400000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>751.5704000000001</v>
+        <v>777.28566</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1383.91974</v>
+        <v>1118.10348</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1976.05851</v>
+        <v>1952.82032</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>6634.37017</v>
+        <v>6221.053309999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2219.57062</v>
+        <v>2226.89733</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>4246.57175</v>
+        <v>3870.53286</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>6099.994860000001</v>
+        <v>5850.91506</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>7535.11122</v>
+        <v>7257.30236</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>7646.314100000001</v>
+        <v>7203.1709</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>13425.52744</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>13158.1751</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>12590.267</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>659.5720900000001</v>
+        <v>677.6669899999999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>623.0109299999999</v>
+        <v>635.9978199999999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1538.55689</v>
+        <v>1632.9242</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>853.9843400000001</v>
+        <v>987.1054799999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2054.05766</v>
+        <v>2108.75282</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2454.46498</v>
+        <v>2573.53613</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1919.5905</v>
+        <v>2912.21803</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2798.65664</v>
+        <v>3150.46923</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>4306.21481</v>
+        <v>4408.987190000001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>7255.408310000001</v>
+        <v>7000.252</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>3180.79476</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>3057.48306</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>3171.486</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>39.06127000000001</v>
+        <v>31.91635</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>46.46346</v>
+        <v>18.101</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>63.05877</v>
+        <v>56.45168999999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>95.77705999999999</v>
+        <v>193.73632</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>103.68501</v>
+        <v>103.68701</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>492.60506</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>37.85135</v>
+        <v>229.32028</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>72.97127</v>
+        <v>150.20202</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>165.54202</v>
+        <v>272.34698</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>212.58942</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>278.37363</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>176.792</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>10.1712</v>
@@ -2246,7 +2317,7 @@
         <v>70.83149</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>81.91287</v>
+        <v>80.57547</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>256.52207</v>
@@ -2269,20 +2340,25 @@
       <c r="M38" s="48" t="n">
         <v>219.52729</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>205.489</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>0</v>
+        <v>6.24054</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>8.038979999999999</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>21.32969</v>
+        <v>21.20792</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>35.93022</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>76.67372999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>27.457</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>183.12821</v>
+        <v>202.12754</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>77.38222999999999</v>
+        <v>112.81501</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>147.43302</v>
+        <v>248.52921</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>216.83128</v>
+        <v>253.33056</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>313.14897</v>
+        <v>346.52613</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>576.5846899999999</v>
+        <v>724.4821699999999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1068.29986</v>
+        <v>1713.37551</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>676.83959</v>
+        <v>1014.8111</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>2266.80948</v>
+        <v>2338.30993</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>6074.387350000001</v>
+        <v>5928.314350000001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1941.96048</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1936.29398</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1772.647</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>72.63285999999999</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>109.56528</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>174.735</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.02841</v>
@@ -2425,134 +2516,154 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>354.55014</v>
+        <v>354.55009</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>316.76024</v>
+        <v>322.67681</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1215.49328</v>
+        <v>1215.49325</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>423.53291</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1085.1038</v>
+        <v>1106.4198</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1063.34559</v>
+        <v>1034.51926</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>725.31985</v>
+        <v>881.4028000000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1904.11759</v>
+        <v>1840.72792</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1694.40259</v>
+        <v>1618.86956</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>786.60738</v>
+        <v>677.5240700000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>554.6943500000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>437.0491499999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>814.366</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>4694.43591</v>
+        <v>4631.03064</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>4662.76378</v>
+        <v>4492.04765</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>5235.29295</v>
+        <v>5415.11353</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>7844.05537</v>
+        <v>8003.49187</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>8310.31977</v>
+        <v>8879.06695</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>10147.43855</v>
+        <v>11186.65637</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>11520.77023</v>
+        <v>13271.15508</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>13746.32276</v>
+        <v>19753.79945</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>18736.24629</v>
+        <v>22351.46445</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>24055.5531</v>
+        <v>25734.78002</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>23854.71153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>22942.82497</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>27395.083</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>4073.50552</v>
+        <v>4010.10025</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>4295.24054</v>
+        <v>4234.955480000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>4731.93531</v>
+        <v>4911.755889999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>7074.013109999999</v>
+        <v>7233.44961</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>7717.830609999999</v>
+        <v>8341.010059999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>9121.289790000001</v>
+        <v>10175.15411</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>10652.42599</v>
+        <v>12412.16694</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>12964.86141</v>
+        <v>18976.58822</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>17182.4205</v>
+        <v>20827.67306</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>22168.12071</v>
+        <v>23847.34763</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>21743.82222</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>20831.93566</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>25550.49</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>620.93039</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>367.52324</v>
+        <v>257.09217</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>503.35764</v>
@@ -2561,19 +2672,19 @@
         <v>770.0422600000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>592.4891600000001</v>
+        <v>538.0568900000001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1026.14876</v>
+        <v>1011.50226</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>868.34424</v>
+        <v>858.98814</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>781.4613499999999</v>
+        <v>777.21123</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1553.82579</v>
+        <v>1523.79139</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>1887.43239</v>
@@ -2581,89 +2692,104 @@
       <c r="M46" s="48" t="n">
         <v>2110.88931</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>1844.593</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>44422.32113</v>
+        <v>52593.61047000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>34143.28333</v>
+        <v>27799.86738</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>47434.78981999999</v>
+        <v>46953.12206</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>53153.01262</v>
+        <v>54462.27918</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>43974.92186</v>
+        <v>44289.79478</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>28716.17037</v>
+        <v>27279.99197</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>40596.86788000001</v>
+        <v>38278.09874</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>15530.80499</v>
+        <v>15538.60288</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>34340.59595</v>
+        <v>26439.27057</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-6572.800819999999</v>
+        <v>-9096.694619999998</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-39206.68552000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-40319.09159</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>60611.41</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2889.512650000001</v>
+        <v>3098.16646</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>2896.2388</v>
+        <v>2942.07367</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>4074.99827</v>
+        <v>4586.86849</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>6614.03082</v>
+        <v>6659.61287</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>6645.59793</v>
+        <v>20599.97064</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>9461.441849999999</v>
+        <v>10364.59141</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>7690.65937</v>
+        <v>7802.685850000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>12281.06814</v>
+        <v>12531.33462</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>13780.75359</v>
+        <v>14366.02131</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>16668.92247</v>
+        <v>16698.38524</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>24473.9544</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>24660.65946</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>23065.823</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>17.49508</v>
@@ -2684,7 +2810,7 @@
         <v>284.44101</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>62.19658</v>
+        <v>72.77408</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>242.37466</v>
@@ -2693,109 +2819,124 @@
         <v>222.98575</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>184.38077</v>
+        <v>183.17388</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>96.07039</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>199.62</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2872.01757</v>
+        <v>3080.67138</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>2860.60208</v>
+        <v>2906.43695</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>4065.92771</v>
+        <v>4577.79793</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>6602.83709</v>
+        <v>6648.41914</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>6422.260560000001</v>
+        <v>20376.63327</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>9177.000840000001</v>
+        <v>10080.1504</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>7628.46279</v>
+        <v>7729.911770000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>12038.69348</v>
+        <v>12288.95996</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>13557.76784</v>
+        <v>14143.03556</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>16484.5417</v>
+        <v>16515.21136</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>24377.88401</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>24564.58907</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>22866.203</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>3346.47157</v>
+        <v>3433.46002</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>3279.16676</v>
+        <v>3417.66438</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>59665.1851</v>
+        <v>56787.10233</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>4202.20928</v>
+        <v>4219.243060000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>7215.168430000001</v>
+        <v>10503.39204</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>29481.22539</v>
+        <v>29471.51639</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>5228.84137</v>
+        <v>5175.30299</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>41185.0307</v>
+        <v>41634.01821</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>8883.420430000002</v>
+        <v>9382.267400000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>35417.74364</v>
+        <v>35490.42231</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>10227.31738</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>11491.44606</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>14609.944</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>31.69588</v>
+        <v>137.75877</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>38.16614</v>
+        <v>113.96952</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>28.71856</v>
+        <v>15.90366</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>56.68382</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>170.67943</v>
+        <v>72.49015</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>33.36225</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>388.70218</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>943.24</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>651.76797</v>
@@ -2828,10 +2974,10 @@
         <v>354.16929</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>593.64437</v>
+        <v>594.64437</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>143.59317</v>
+        <v>143.71767</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>1982.95984</v>
@@ -2840,178 +2986,201 @@
         <v>510.02892</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>514.8251300000001</v>
+        <v>517.41513</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>346.4404</v>
+        <v>345.61045</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>555.0333000000001</v>
+        <v>552.85329</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>661.98595</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>487.93814</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>468.00535</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>565.7619999999999</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>2663.00772</v>
+        <v>2643.93328</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>2886.83133</v>
+        <v>2949.52557</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>59042.82216999999</v>
+        <v>56176.5543</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>4001.93229</v>
+        <v>4018.84157</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>5061.52916</v>
+        <v>8447.942050000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>28937.83422</v>
+        <v>28928.12522</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>4661.33545</v>
+        <v>4605.20707</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>40743.82745</v>
+        <v>41193.64491</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>8015.16572</v>
+        <v>8516.1927</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>34432.2051</v>
+        <v>34504.88377</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>9350.67706</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>10634.73853</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>13100.942</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>43965.36221</v>
+        <v>52258.31691</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>33760.35537</v>
+        <v>27324.27667</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-8155.397010000001</v>
+        <v>-5247.111779999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>55564.83416</v>
+        <v>56902.64899</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>43405.35136</v>
+        <v>54386.37338</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>8696.386829999999</v>
+        <v>8173.06699</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>43058.68588</v>
+        <v>40905.4816</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-13373.15757</v>
+        <v>-13564.08071</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>39237.92911</v>
+        <v>31423.02448</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-25321.62199</v>
+        <v>-27888.73169</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-24960.0485</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-27149.87819</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>69067.289</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>6117.41513</v>
+        <v>6076.6697</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>6174.23834</v>
+        <v>6132.566800000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>7761.498070000001</v>
+        <v>7756.57677</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>9417.799779999999</v>
+        <v>9766.17144</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>10609.31029</v>
+        <v>11206.32228</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>9683.98712</v>
+        <v>10006.64175</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>11725.319</v>
+        <v>12064.91103</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>11596.43794</v>
+        <v>11976.38714</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>12677.88856</v>
+        <v>13213.81577</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>13111.81688</v>
+        <v>12786.47826</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>13754.34339</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>13630.08389</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>19373.615</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>37847.94708</v>
+        <v>46181.64721</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>27586.11703</v>
+        <v>21191.70987</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-15916.89508</v>
+        <v>-13003.68855</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>46147.03438</v>
+        <v>47136.47755</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>32796.04107</v>
+        <v>43180.0511</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-987.6002900000001</v>
+        <v>-1833.574760000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>31333.36688</v>
+        <v>28840.57057</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-24969.59551</v>
+        <v>-25540.46785</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>26560.04055</v>
+        <v>18209.20871</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-38433.43887</v>
+        <v>-40675.20995</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-38714.39189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-40779.96208</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>49693.674</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="H59" s="35" t="n">
         <v>1074</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1215</v>
+        <v>1200</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1276</v>
+        <v>1291</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1382</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>